--- a/lib/jobs/run_nbutane_jsr_adjs.xlsx
+++ b/lib/jobs/run_nbutane_jsr_adjs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mulvihcr/PycharmProjects/pythonProject/mechsimulator/lib/jobs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clayton_mulvihill/PycharmProjects/pythonProject/mechsimulator/lib/jobs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EFA118-5FE9-AF47-B0B2-BFB85A029C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A133C068-2ACF-B942-8603-87A814538AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29220" yWindow="8380" windowWidth="18420" windowHeight="10640" activeTab="1" xr2:uid="{2D11CBDF-B31A-2D4F-AB7A-36B1E578E200}"/>
+    <workbookView xWindow="36400" yWindow="12460" windowWidth="18420" windowHeight="10640" activeTab="1" xr2:uid="{2D11CBDF-B31A-2D4F-AB7A-36B1E578E200}"/>
   </bookViews>
   <sheets>
     <sheet name="exp" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -69,25 +68,25 @@
     <t>n-butane_merge.csv</t>
   </si>
   <si>
-    <t>combined.yaml</t>
-  </si>
-  <si>
     <t>Combined</t>
   </si>
   <si>
     <t>bahrini_2013_jsr_n-butane.xlsx</t>
   </si>
   <si>
-    <t>combined_adj3.yaml</t>
-  </si>
-  <si>
-    <t>combined_adj4.yaml</t>
-  </si>
-  <si>
-    <t>Adj 3</t>
-  </si>
-  <si>
-    <t>Adj 4</t>
+    <t>combined1.cti</t>
+  </si>
+  <si>
+    <t>combined2.cti</t>
+  </si>
+  <si>
+    <t>combined.cti</t>
+  </si>
+  <si>
+    <t>Adj 1</t>
+  </si>
+  <si>
+    <t>Adj 2</t>
   </si>
 </sst>
 </file>
@@ -470,7 +469,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -492,13 +491,13 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -514,18 +513,18 @@
     </row>
     <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -536,7 +535,7 @@
     </row>
     <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
